--- a/Stability/Analysis/stat.xlsx
+++ b/Stability/Analysis/stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\Analysis\Stability\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F14E413-3B0A-4E50-A278-D8AC444F36E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2020FA33-EF1C-4F4C-8686-69468FD693EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="877" firstSheet="2" activeTab="23"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="omega" sheetId="1" r:id="rId1"/>
@@ -944,721 +944,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547CFC94-9713-49E7-ABA7-0EBF2EE4C7B6}">
-  <dimension ref="B2:N26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="true" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="8" width="11.88671875" style="1" customWidth="true"/>
-    <col min="9" max="9" width="11.88671875" customWidth="true"/>
-    <col min="12" max="14" width="14.109375" customWidth="true"/>
+    <col min="1" max="7" width="11.88671875" style="1" customWidth="true"/>
+    <col min="8" max="8" width="11.88671875" customWidth="true"/>
   </cols>
   <sheetData>
+    <row r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>78</v>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.86660000000000004</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.81689999999999996</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.85460000000000003</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.84350000000000003</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.86829999999999996</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.73660000000000003</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.71679999999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.74209999999999998</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.6512</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.55069999999999997</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.62109999999999999</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.51080000000000003</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.50770000000000004</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.5494</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.54310000000000003</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.50270000000000004</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.61709999999999998</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.59640000000000004</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.5786</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.61150000000000004</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.47939999999999999</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.71589999999999998</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.70740000000000003</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.80189999999999995</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.7923</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.82010000000000005</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.72550000000000003</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.74350000000000005</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.75229999999999997</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.75409999999999999</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6">
-        <v>0.86839999999999995</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.87519999999999998</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.87019999999999997</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.86660000000000004</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3">
+      <c r="D14" s="7">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.75890000000000002</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7">
-        <v>0.81130000000000002</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.82130000000000003</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.81689999999999996</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="L4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D15" s="7">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.42930000000000001</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.35339999999999999</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7">
-        <v>0.85129999999999995</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.85050000000000003</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.85460000000000003</v>
-      </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D16" s="7">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.7157</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7">
-        <v>0.85660000000000003</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.86009999999999998</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.84860000000000002</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.84350000000000003</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.86829999999999996</v>
-      </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="N6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D17" s="7">
+        <v>0.38290000000000002</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.35270000000000001</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.40739999999999998</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7">
-        <v>0.72919999999999996</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.73660000000000003</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.71679999999999999</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.71750000000000003</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.74209999999999998</v>
-      </c>
-      <c r="L7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7">
+      <c r="D18" s="7">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.66269999999999996</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.63119999999999998</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N7">
+      <c r="D19" s="7">
+        <v>0.46450000000000002</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.49259999999999998</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.46060000000000001</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.46779999999999999</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D20" s="7">
+        <v>0.61860000000000004</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.63870000000000005</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.61170000000000002</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.58830000000000005</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.6512</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.52880000000000005</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.55069999999999997</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.62109999999999999</v>
-      </c>
-    </row>
-    <row r="9" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.30659999999999998</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.33879999999999999</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.3503</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.35149999999999998</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.51080000000000003</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.50770000000000004</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.5494</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.54310000000000003</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.50270000000000004</v>
-      </c>
-    </row>
-    <row r="10" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.73760000000000003</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.7329</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.7056</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.61709999999999998</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.59640000000000004</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.5786</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0.61150000000000004</v>
-      </c>
-    </row>
-    <row r="11" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.78139999999999998</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.47939999999999999</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.71589999999999998</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0.70740000000000003</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.68559999999999999</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.66769999999999996</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.80189999999999995</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.81</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.7923</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0.82010000000000005</v>
-      </c>
-    </row>
-    <row r="13" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7">
-        <v>0.73229999999999995</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.72550000000000003</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.72219999999999995</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0.74350000000000005</v>
-      </c>
-    </row>
-    <row r="14" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.75360000000000005</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.74409999999999998</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.73480000000000001</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.75229999999999997</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0.75409999999999999</v>
-      </c>
-    </row>
-    <row r="15" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.77149999999999996</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.77010000000000001</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.77210000000000001</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.78720000000000001</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0.75890000000000002</v>
-      </c>
-    </row>
-    <row r="16" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.39069999999999999</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.42930000000000001</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.34760000000000002</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.43380000000000002</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0.35339999999999999</v>
-      </c>
-    </row>
-    <row r="17" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.71579999999999999</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.69110000000000005</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.74080000000000001</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0.71640000000000004</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0.7157</v>
-      </c>
-    </row>
-    <row r="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.38290000000000002</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.35270000000000001</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0.40739999999999998</v>
-      </c>
-    </row>
-    <row r="19" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.65649999999999997</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.66269999999999996</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.69540000000000002</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0.63119999999999998</v>
-      </c>
-    </row>
-    <row r="20" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.46450000000000002</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.49259999999999998</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.43480000000000002</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.46060000000000001</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0.46779999999999999</v>
-      </c>
-    </row>
-    <row r="21" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.61860000000000004</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0.62039999999999995</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.62119999999999997</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0.63870000000000005</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0.61170000000000002</v>
-      </c>
-    </row>
-    <row r="22" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.30659999999999998</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.30719999999999997</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.33879999999999999</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0.3503</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0.35149999999999998</v>
-      </c>
-    </row>
-    <row r="23" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.71779999999999999</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0.73760000000000003</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0.7329</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0.7056</v>
-      </c>
-    </row>
-    <row r="24" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.77410000000000001</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.80089999999999995</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0.78139999999999998</v>
-      </c>
-    </row>
-    <row r="25" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.67649999999999999</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.66290000000000004</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0.68969999999999998</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0.68559999999999999</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0.66769999999999996</v>
-      </c>
-    </row>
-    <row r="26" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="D25" s="8">
         <v>0.44469999999999998</v>
       </c>
-      <c r="F26" s="8">
+      <c r="E25" s="8">
         <v>0.496</v>
       </c>
-      <c r="G26" s="8">
+      <c r="F25" s="8">
         <v>0.37869999999999998</v>
       </c>
-      <c r="H26" s="8">
+      <c r="G25" s="8">
         <v>0.40889999999999999</v>
       </c>
-      <c r="I26" s="8">
+      <c r="H25" s="8">
         <v>0.47149999999999997</v>
       </c>
     </row>
@@ -19442,7 +19386,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19551,6 +19495,15 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
+      <c r="F6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -19562,6 +19515,15 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -19573,6 +19535,15 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -19584,6 +19555,15 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -19595,6 +19575,15 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -19605,6 +19594,15 @@
       </c>
       <c r="C11" t="s">
         <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.3">
@@ -27594,7 +27592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
